--- a/Hx.BackAdmin/App_Data/精品日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/精品日报表模板.xlsx
@@ -789,13 +789,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH8" sqref="AH8"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
     <col min="3" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="29" width="5.625" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="5.625" customWidth="1"/>
